--- a/data/trans_orig/P36BPD01_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD01_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{981AC7DC-4107-427C-924C-7401FB75D819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C828FC-067A-4BEB-85A4-AB247F634A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB98C521-B6EB-483E-8509-78CE51249787}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03D6416E-1707-4DDF-BC4F-86A108519342}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población según si utilizan como principal grasa para cocinar el aceite de oliva en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>94,17%</t>
   </si>
   <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
   </si>
   <si>
     <t>94,55%</t>
   </si>
   <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>5,83%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,49 +137,55 @@
     <t>94,42%</t>
   </si>
   <si>
-    <t>93,02%</t>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>6,98%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,16 +194,16 @@
     <t>97,52%</t>
   </si>
   <si>
-    <t>98,63%</t>
+    <t>98,58%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>97,23%</t>
@@ -206,28 +212,28 @@
     <t>96,16%</t>
   </si>
   <si>
-    <t>98,04%</t>
+    <t>98,05%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,37%</t>
+    <t>1,42%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,96%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>3,84%</t>
@@ -236,25 +242,25 @@
     <t>95,0%</t>
   </si>
   <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>94,65%</t>
+    <t>94,63%</t>
   </si>
   <si>
     <t>95,79%</t>
@@ -263,19 +269,19 @@
     <t>5,0%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -284,7 +290,7 @@
     <t>4,21%</t>
   </si>
   <si>
-    <t>5,35%</t>
+    <t>5,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -699,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEB516C-FF7C-4AFD-B4D2-784CC8EBC7E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB8AF74-1096-47E1-928E-C57AEA247A99}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -984,7 +990,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>2761</v>
@@ -993,13 +999,13 @@
         <v>2136591</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>4626</v>
@@ -1008,13 +1014,13 @@
         <v>4164521</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1029,13 +1035,13 @@
         <v>119936</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>155</v>
@@ -1044,13 +1050,13 @@
         <v>108891</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>273</v>
@@ -1059,13 +1065,13 @@
         <v>228828</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1121,7 +1127,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1133,13 +1139,13 @@
         <v>654448</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>971</v>
@@ -1148,13 +1154,13 @@
         <v>692153</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>1632</v>
@@ -1163,13 +1169,13 @@
         <v>1346601</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1184,10 +1190,10 @@
         <v>16613</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -1199,13 +1205,13 @@
         <v>21733</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -1214,13 +1220,13 @@
         <v>38346</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1288,13 +1294,13 @@
         <v>3191431</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>5082</v>
@@ -1303,28 +1309,28 @@
         <v>3618284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>8256</v>
       </c>
       <c r="N13" s="7">
-        <v>6809714</v>
+        <v>6809715</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,13 +1345,13 @@
         <v>168061</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>264</v>
@@ -1354,13 +1360,13 @@
         <v>173956</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>442</v>
@@ -1369,13 +1375,13 @@
         <v>342017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1417,7 +1423,7 @@
         <v>8698</v>
       </c>
       <c r="N15" s="7">
-        <v>7151731</v>
+        <v>7151732</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1431,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD01_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD01_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C828FC-067A-4BEB-85A4-AB247F634A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFE8D463-572E-408A-87B4-ABC14709B1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03D6416E-1707-4DDF-BC4F-86A108519342}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DE404E15-B892-43E6-94E8-65A24738D396}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población según si utilizan como principal grasa para cocinar el aceite de oliva en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
+    <t>5,64%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,163 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB8AF74-1096-47E1-928E-C57AEA247A99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9518D075-C220-46E6-BE20-CA9DA9B71F48}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -826,7 +832,7 @@
         <v>648</v>
       </c>
       <c r="D4" s="7">
-        <v>509051</v>
+        <v>484941</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -841,7 +847,7 @@
         <v>1350</v>
       </c>
       <c r="I4" s="7">
-        <v>789540</v>
+        <v>712261</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -856,7 +862,7 @@
         <v>1998</v>
       </c>
       <c r="N4" s="7">
-        <v>1298592</v>
+        <v>1197202</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -877,7 +883,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="7">
-        <v>31512</v>
+        <v>29001</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -892,7 +898,7 @@
         <v>76</v>
       </c>
       <c r="I5" s="7">
-        <v>43332</v>
+        <v>40499</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -907,7 +913,7 @@
         <v>118</v>
       </c>
       <c r="N5" s="7">
-        <v>74843</v>
+        <v>69499</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -928,7 +934,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -943,7 +949,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>832872</v>
+        <v>752760</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -958,7 +964,7 @@
         <v>2116</v>
       </c>
       <c r="N6" s="7">
-        <v>1373435</v>
+        <v>1266701</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -981,7 +987,7 @@
         <v>1865</v>
       </c>
       <c r="D7" s="7">
-        <v>2027932</v>
+        <v>2155002</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -996,7 +1002,7 @@
         <v>2761</v>
       </c>
       <c r="I7" s="7">
-        <v>2136591</v>
+        <v>2133488</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1011,7 +1017,7 @@
         <v>4626</v>
       </c>
       <c r="N7" s="7">
-        <v>4164521</v>
+        <v>4288489</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1032,7 +1038,7 @@
         <v>118</v>
       </c>
       <c r="D8" s="7">
-        <v>119936</v>
+        <v>120056</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1047,7 +1053,7 @@
         <v>155</v>
       </c>
       <c r="I8" s="7">
-        <v>108891</v>
+        <v>100728</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1062,7 +1068,7 @@
         <v>273</v>
       </c>
       <c r="N8" s="7">
-        <v>228828</v>
+        <v>220784</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1083,7 +1089,7 @@
         <v>1983</v>
       </c>
       <c r="D9" s="7">
-        <v>2147868</v>
+        <v>2275058</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1098,7 +1104,7 @@
         <v>2916</v>
       </c>
       <c r="I9" s="7">
-        <v>2245482</v>
+        <v>2234216</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1113,7 +1119,7 @@
         <v>4899</v>
       </c>
       <c r="N9" s="7">
-        <v>4393349</v>
+        <v>4509273</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1136,46 +1142,46 @@
         <v>661</v>
       </c>
       <c r="D10" s="7">
-        <v>654448</v>
+        <v>628738</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>971</v>
       </c>
       <c r="I10" s="7">
-        <v>692153</v>
+        <v>640023</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1632</v>
       </c>
       <c r="N10" s="7">
-        <v>1346601</v>
+        <v>1268761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1187,46 +1193,46 @@
         <v>18</v>
       </c>
       <c r="D11" s="7">
-        <v>16613</v>
+        <v>16042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>21733</v>
+        <v>20440</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
       </c>
       <c r="N11" s="7">
-        <v>38346</v>
+        <v>36482</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1238,7 +1244,7 @@
         <v>679</v>
       </c>
       <c r="D12" s="7">
-        <v>671061</v>
+        <v>644780</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1253,7 +1259,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1268,7 +1274,7 @@
         <v>1683</v>
       </c>
       <c r="N12" s="7">
-        <v>1384947</v>
+        <v>1305243</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1291,46 +1297,46 @@
         <v>3174</v>
       </c>
       <c r="D13" s="7">
-        <v>3191431</v>
+        <v>3268680</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>5082</v>
       </c>
       <c r="I13" s="7">
-        <v>3618284</v>
+        <v>3485771</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>8256</v>
       </c>
       <c r="N13" s="7">
-        <v>6809715</v>
+        <v>6754451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,46 +1348,46 @@
         <v>178</v>
       </c>
       <c r="D14" s="7">
-        <v>168061</v>
+        <v>165099</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>264</v>
       </c>
       <c r="I14" s="7">
-        <v>173956</v>
+        <v>161667</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>442</v>
       </c>
       <c r="N14" s="7">
-        <v>342017</v>
+        <v>326766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,7 +1399,7 @@
         <v>3352</v>
       </c>
       <c r="D15" s="7">
-        <v>3359492</v>
+        <v>3433779</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1408,7 +1414,7 @@
         <v>5346</v>
       </c>
       <c r="I15" s="7">
-        <v>3792240</v>
+        <v>3647438</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1423,7 +1429,7 @@
         <v>8698</v>
       </c>
       <c r="N15" s="7">
-        <v>7151732</v>
+        <v>7081217</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
